--- a/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
+++ b/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/OneDrive/Skrum/05_プロダクト開発/プロダクト資料/02_基本設計/1on1機能/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="目標管理画面" sheetId="1" r:id="rId1"/>
+    <sheet name="日報" sheetId="5" r:id="rId2"/>
+    <sheet name="進捗報告" sheetId="4" r:id="rId3"/>
+    <sheet name="ヒアリング・フィードバック・面談メモ" sheetId="2" r:id="rId4"/>
+    <sheet name="管理画面" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -1411,6 +1415,8726 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="四角形吹き出し 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8394700" y="2311400"/>
+          <a:ext cx="2514600" cy="917448"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49621"/>
+            <a:gd name="adj2" fmla="val 78188"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Go to the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>日報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t> sheet.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="四角形吹き出し 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="4191000"/>
+          <a:ext cx="2514600" cy="917448"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49621"/>
+            <a:gd name="adj2" fmla="val 78188"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Go to the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>進捗報告</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t> sheet.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>231648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形吹き出し 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="11747500"/>
+          <a:ext cx="2895600" cy="1438148"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49621"/>
+            <a:gd name="adj2" fmla="val 78188"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Go to the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ヒアリング・フィードバック・面談メモ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t> sheet.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>231648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="四角形吹き出し 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="11747500"/>
+          <a:ext cx="2895600" cy="1438148"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44239"/>
+            <a:gd name="adj2" fmla="val 193871"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Go to the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ヒアリング・フィードバック・面談メモ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t> sheet.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形吹き出し 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350000" y="3657600"/>
+          <a:ext cx="673100" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 147092"/>
+            <a:gd name="adj2" fmla="val -22283"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="四角形吹き出し 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9626600" y="5346700"/>
+          <a:ext cx="673100" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 147092"/>
+            <a:gd name="adj2" fmla="val -22283"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="四角形吹き出し 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="13601700"/>
+          <a:ext cx="673100" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 147092"/>
+            <a:gd name="adj2" fmla="val -22283"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="四角形吹き出し 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="15328900"/>
+          <a:ext cx="673100" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 147092"/>
+            <a:gd name="adj2" fmla="val -22283"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>478128</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12911428" cy="7353300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="7848600"/>
+          <a:ext cx="6362700" cy="3746500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29305"/>
+            <a:gd name="adj2" fmla="val -68400"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Use API AP0101 in throwing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ex.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/v1/users/{userId}/reports.json</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>[example]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>{ </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"oneOnOneType": "1", </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"reportDate": "2013-04-04T00:00:00Z",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"to": [{"userId": 3}, {"userId": 5}, {"userId": 8}],</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"body": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>アイウエオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13004800" y="596900"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59801"/>
+            <a:gd name="adj2" fmla="val -26349"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>日付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> box (below) between "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>日報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>" and "TO". (sorry, this is a design mistake.)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="図形グループ 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13347700" y="1803400"/>
+          <a:ext cx="3530600" cy="419100"/>
+          <a:chOff x="13347700" y="927100"/>
+          <a:chExt cx="3530600" cy="419100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="図 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13347700" y="927100"/>
+            <a:ext cx="3530600" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13436600" y="1028700"/>
+            <a:ext cx="444500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>日付</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175000" y="3009900"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80143"/>
+            <a:gd name="adj2" fmla="val -135964"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>You</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> can select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>multiple</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> users by user search API AH0207.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>TO is required.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>The display format is like Gmail.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>241797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12941300" cy="7353797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6997700" y="7899400"/>
+          <a:ext cx="6362700" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28307"/>
+            <a:gd name="adj2" fmla="val -59719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Use API AP0101 in throwing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ex.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/v1/users/{userId}/reports.json</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>[example]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>送信先ありの場合：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"oneOnOneType": "2",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"reportDate": "2013-04-04T00:00:00Z",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"to": [{"userId": 3}, {"userId": 5}, {"userId": 8}],</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"okrId": 3,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"body": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>アイウエオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>送信先</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>なし</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>の場合：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"oneOnOneType": "2",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"reportDate": "2013-04-04T00:00:00Z",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"okrId": 3,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"body": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>アイウエオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3187700" y="3340100"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80143"/>
+            <a:gd name="adj2" fmla="val -135964"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>You</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> can select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>multiple</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> users by user search API AH0207.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>TO is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> required.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>The display format is like Gmail.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13182600" y="965200"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59801"/>
+            <a:gd name="adj2" fmla="val -26349"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>日付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> box (below) between "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>対象目標</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>" and "TO". (sorry, this is a design mistake.)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="図形グループ 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13525500" y="2171700"/>
+          <a:ext cx="3530600" cy="419100"/>
+          <a:chOff x="13347700" y="927100"/>
+          <a:chExt cx="3530600" cy="419100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13347700" y="927100"/>
+            <a:ext cx="3530600" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13436600" y="1028700"/>
+            <a:ext cx="444500" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>日付</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530210</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32639000"/>
+          <a:ext cx="12963510" cy="7353300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556594</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12989894" cy="7391400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>18840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16281400"/>
+          <a:ext cx="12954000" cy="7359440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13360400" y="622300"/>
+          <a:ext cx="3505200" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67083"/>
+            <a:gd name="adj2" fmla="val -16377"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Only when the button </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t> is clicked.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Do</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> not show when the button </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> is clicked.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9271000" y="1066800"/>
+          <a:ext cx="3467100" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="16903700"/>
+          <a:ext cx="3505200" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67083"/>
+            <a:gd name="adj2" fmla="val -16377"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Only when the button </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t> is clicked.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Do</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> not show when the button </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> is clicked.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9245600" y="13779500"/>
+          <a:ext cx="3467100" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形吹き出し 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="3708400"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80143"/>
+            <a:gd name="adj2" fmla="val -135964"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>You</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> can select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>multiple</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> users by user search API AH0207.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>TO is required.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>The display format is like Gmail.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形吹き出し 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7035800" y="7962900"/>
+          <a:ext cx="6362700" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28307"/>
+            <a:gd name="adj2" fmla="val -59719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Use API AP0102 in throwing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ex.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/v1/users/{userId}/feedbacks.json</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>[example]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>紐付け</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>OKR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>なし</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"oneOnOneType": "4",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"dueDate": "2013-04-04T00:00:00Z",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"to": [{"userId": 3}, {"userId": 5}, {"userId": 8}],</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"body": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>アイウエオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>紐付け</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>OKR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ありの場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"oneOnOneType": "4",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"dueDate": "2013-04-04T00:00:00Z",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"to": [{"userId": 3}, {"userId": 5}, {"userId": 8}],</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"okrId": 3,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"body": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>アイウエオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形吹き出し 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13246100" y="3949700"/>
+          <a:ext cx="3530600" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60864"/>
+            <a:gd name="adj2" fmla="val -86857"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Body is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> required in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>ヒアリング</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="四角形吹き出し 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6997700" y="24244300"/>
+          <a:ext cx="6362700" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28307"/>
+            <a:gd name="adj2" fmla="val -59719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Use API AP0102 in throwing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ex.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/v1/users/{userId}/feedbacks.json</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>[example]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>紐付け</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>OKR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>なし</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>の場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>{  "oneOnOneType": "3",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"feedbackType": "1",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"to": [{"userId": 3}, {"userId": 5}, {"userId": 8}],</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"body": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>アイウエオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>紐付け</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>OKR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ありの場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"oneOnOneType": "3",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"feedbackType": "1",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"to": [{"userId": 3}, {"userId": 5}, {"userId": 8}],  "okrId": 3,  </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"body": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>アイウエオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形吹き出し 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="40589200"/>
+          <a:ext cx="6362700" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28307"/>
+            <a:gd name="adj2" fmla="val -59719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Use API AP0103 in throwing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ex.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/v1/users/{userId}/interviewnotes.json</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>[example]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>送信先：あり：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"oneOnOneType": "5",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"intervieweeUserId": 3,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"interviewDate": "2013-04-04T00:00:00Z",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"to": [{"userId": 3}, {"userId": 5}, {"userId": 8}],</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"body": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>アイウエオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>送信先：なし：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"oneOnOneType": "5",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"intervieweeUserId": 3,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"interviewDate": "2013-04-04T00:00:00Z",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"body": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="mr-IN" sz="1800"/>
+            <a:t>アイウエオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形吹き出し 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13169900" y="34086800"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -88013"/>
+            <a:gd name="adj2" fmla="val -25067"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Here is "TO", not </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>メモ共有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>. (sorry, this is a design mistake.)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形吹き出し 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="36360100"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80143"/>
+            <a:gd name="adj2" fmla="val -135964"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>You</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> can select </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>multiple</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> users by user search API AH0207.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>TO is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> required.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>The display format is like Gmail.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形吹き出し 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="33477200"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104445"/>
+            <a:gd name="adj2" fmla="val -30836"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>The default user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> is the user of OKRManagement.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>You</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> can also select a user by user search API AH0207.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>The display format is the same as that of TO.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="円/楕円 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="88900"/>
+          <a:ext cx="2641600" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ヒアリングの場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="円/楕円 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="16510000"/>
+          <a:ext cx="2641600" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>フィードバックの場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="円/楕円 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88900" y="32334200"/>
+          <a:ext cx="2641600" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>面談メモの場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>938701</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>24073</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="34556700"/>
+          <a:ext cx="1776901" cy="11373"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>522726</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12956026" cy="7378700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>458630</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12611100"/>
+          <a:ext cx="12891930" cy="7340600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88900" y="7708900"/>
+          <a:ext cx="6362700" cy="2768600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4428"/>
+            <a:gd name="adj2" fmla="val -247792"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Use API AP0106 in throwing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ex.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/v1/users/{userId}/oneonones.json?{oootype}&amp;{before}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>oootype: oneOnOneType (the default value is "1" when this page is opened.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>before:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> lastUpdate (this is used when scrolling)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12814300" y="2095500"/>
+          <a:ext cx="6362700" cy="2768600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62911"/>
+            <a:gd name="adj2" fmla="val -67976"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Use API AP0105 in throwing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ex.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/v1/users/{userId}/newoneonones.json?{q}&amp;{sdate}&amp;{edate}&amp;{before}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>before:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> lastUpdate (this is used when scrolling)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>q, sdate, edate and before are not needed when this page is opened.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="177800"/>
+          <a:ext cx="838200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26293"/>
+            <a:gd name="adj2" fmla="val 83204"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>sdate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形吹き出し 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11595100" y="139700"/>
+          <a:ext cx="838200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6596"/>
+            <a:gd name="adj2" fmla="val 91775"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>edate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="939800"/>
+          <a:ext cx="419100" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -167646"/>
+            <a:gd name="adj2" fmla="val 17489"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>q</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形吹き出し 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="660400"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75499"/>
+            <a:gd name="adj2" fmla="val 50311"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>oootype="1"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形吹き出し 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1092200"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 81284"/>
+            <a:gd name="adj2" fmla="val 20311"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>oootype="4"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形吹き出し 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1524000"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82110"/>
+            <a:gd name="adj2" fmla="val -26356"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>oootype="3"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形吹き出し 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1981200"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82936"/>
+            <a:gd name="adj2" fmla="val -59689"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>oootype="2"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形吹き出し 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2489200"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 84589"/>
+            <a:gd name="adj2" fmla="val -119689"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>oootype="5"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形吹き出し 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12852400" y="5829300"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93922"/>
+            <a:gd name="adj2" fmla="val -46356"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>partOfText</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形吹き出し 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13042900" y="5232400"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -90616"/>
+            <a:gd name="adj2" fmla="val 10311"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>lastUpdate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形吹き出し 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9194800" y="4419600"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 71966"/>
+            <a:gd name="adj2" fmla="val 196978"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>oneOnOneType</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="四角形吹き出し 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8661400" y="5461000"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90082"/>
+            <a:gd name="adj2" fmla="val -19689"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>fromToNames</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形吹き出し 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="4902200"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95879"/>
+            <a:gd name="adj2" fmla="val 80311"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>senderUserId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形吹き出し 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="3924300"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95879"/>
+            <a:gd name="adj2" fmla="val 80311"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>senderUserId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形吹き出し 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1854200" y="3390900"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 92256"/>
+            <a:gd name="adj2" fmla="val 190311"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>fromName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形吹き出し 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="3492500"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76585"/>
+            <a:gd name="adj2" fmla="val 160311"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>toNames</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="四角形吹き出し 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2044700" y="4864100"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 88723"/>
+            <a:gd name="adj2" fmla="val -116356"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>partOfText</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形吹き出し 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8445500" y="3619500"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20368"/>
+            <a:gd name="adj2" fmla="val 113644"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>lastUpdate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形吹き出し 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546600" y="20472400"/>
+          <a:ext cx="6362700" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 27708"/>
+            <a:gd name="adj2" fmla="val -94075"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Use API AP0104 in throwing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ex.)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/v1/oneonones/{oneononeId}/replies.json</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="939800"/>
+          <a:ext cx="1231900" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形吹き出し 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="8547100"/>
+          <a:ext cx="3619500" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -37186"/>
+            <a:gd name="adj2" fmla="val -155850"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形吹き出し 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="8559800"/>
+          <a:ext cx="3619500" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31572"/>
+            <a:gd name="adj2" fmla="val 209456"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形吹き出し 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="8547100"/>
+          <a:ext cx="3619500" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 29831"/>
+            <a:gd name="adj2" fmla="val -147687"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>If</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> you click one of the above items(areas), it shows the below page.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5689600" y="13512800"/>
+          <a:ext cx="2578100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形吹き出し 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3060700" y="11531600"/>
+          <a:ext cx="2527300" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53855"/>
+            <a:gd name="adj2" fmla="val 118345"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Show</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> "header" content in json response.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="四角形吹き出し 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4660900" y="16548100"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43268"/>
+            <a:gd name="adj2" fmla="val -173023"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>text</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="四角形吹き出し 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8661400" y="14884400"/>
+          <a:ext cx="1536700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20368"/>
+            <a:gd name="adj2" fmla="val 113644"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>lastUpdate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形吹き出し 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="15201900"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95879"/>
+            <a:gd name="adj2" fmla="val 80311"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>senderUserId</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形吹き出し 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765300" y="13106400"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 92256"/>
+            <a:gd name="adj2" fmla="val 190311"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>fromName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="四角形吹き出し 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6299200" y="14122400"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -85281"/>
+            <a:gd name="adj2" fmla="val -46356"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>toNames</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>103030</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13208000" y="12623800"/>
+          <a:ext cx="12891930" cy="7340600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="円/楕円 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13258800" y="12217400"/>
+          <a:ext cx="2641600" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>日報の場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18961100" y="13589000"/>
+          <a:ext cx="2362200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>対象日付：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2017</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>141130</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26809700" y="12623800"/>
+          <a:ext cx="12891930" cy="7340600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="円/楕円 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26784300" y="12293600"/>
+          <a:ext cx="2641600" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ヒアリングの場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32537400" y="13398500"/>
+          <a:ext cx="1612900" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回答期限：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2017</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>191930</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40424100" y="12611100"/>
+          <a:ext cx="12891930" cy="7340600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="円/楕円 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40398700" y="12280900"/>
+          <a:ext cx="2641600" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>フィードバックの場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>138758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47396400" y="13346758"/>
+          <a:ext cx="787400" cy="204141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>90330</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53886100" y="12623800"/>
+          <a:ext cx="12891930" cy="7340600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="円/楕円 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53860700" y="12293600"/>
+          <a:ext cx="2641600" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>進捗報告の場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59613800" y="13373100"/>
+          <a:ext cx="1612900" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>対象日付：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2017</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46139100" y="13335000"/>
+          <a:ext cx="2171700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フィードバック種類：</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>128430</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="67487800" y="12598400"/>
+          <a:ext cx="12891930" cy="7340600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="円/楕円 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="67462400" y="12268200"/>
+          <a:ext cx="2641600" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>面談メモの場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73304400" y="13563600"/>
+          <a:ext cx="2374900" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73558400" y="13360400"/>
+          <a:ext cx="1612900" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>面談相手：田澤</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>尚治</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73571100" y="13627100"/>
+          <a:ext cx="1612900" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>面談日：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2017</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="四角形吹き出し 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19989800" y="12903200"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -27309"/>
+            <a:gd name="adj2" fmla="val 113644"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>targetDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="四角形吹き出し 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34175700" y="12827000"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49048"/>
+            <a:gd name="adj2" fmla="val 116977"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>dueDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="四角形吹き出し 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35267900" y="13474700"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66439"/>
+            <a:gd name="adj2" fmla="val 13644"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>okrName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="四角形吹き出し 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47739300" y="12687300"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49048"/>
+            <a:gd name="adj2" fmla="val 116977"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>feedbackType</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="四角形吹き出し 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60312300" y="12687300"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49048"/>
+            <a:gd name="adj2" fmla="val 116977"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>targetDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="四角形吹き出し 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="75196700" y="12788900"/>
+          <a:ext cx="2578100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49048"/>
+            <a:gd name="adj2" fmla="val 116977"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>intervieweeUserName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="四角形吹き出し 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="75692000" y="13462000"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -75135"/>
+            <a:gd name="adj2" fmla="val 23644"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>targetDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69507100" y="14668500"/>
+          <a:ext cx="965200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="55880000" y="14439900"/>
+          <a:ext cx="965200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42443400" y="14147800"/>
+          <a:ext cx="965200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28803600" y="13881100"/>
+          <a:ext cx="965200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15163800" y="13627100"/>
+          <a:ext cx="965200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1679,9 +10403,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
+++ b/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nohr/Dev/skrum/skrum_docs/04_SpecificDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2436,6 +2436,84 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形吹き出し 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="469900"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 122602"/>
+            <a:gd name="adj2" fmla="val -9041"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> users are gotten by API AP0108.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/users/{userId}/defaultdestinations.json&amp;oootype=1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3097,6 +3175,84 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形吹き出し 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282700" y="812800"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 122602"/>
+            <a:gd name="adj2" fmla="val -9041"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> users are gotten by API AP0108.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/users/{userId}/defaultdestinations.json&amp;oootype=2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5792,6 +5948,240 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形吹き出し 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2870200" y="571500"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87965"/>
+            <a:gd name="adj2" fmla="val 20446"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> users are gotten by API AP0108.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/users/{userId}/defaultdestinations.json&amp;oootype=4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形吹き出し 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908300" y="16764000"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87965"/>
+            <a:gd name="adj2" fmla="val 20446"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> users are gotten by API AP0108.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/users/{userId}/defaultdestinations.json&amp;oootype=3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形吹き出し 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13093700" y="36296600"/>
+          <a:ext cx="4546600" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -92203"/>
+            <a:gd name="adj2" fmla="val -131477"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> users are gotten by API AP0108.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>/users/{userId}/defaultdestinations.json&amp;oootype=5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>

--- a/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
+++ b/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目標管理画面" sheetId="1" r:id="rId1"/>
@@ -1931,6 +1931,128 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="四角形吹き出し 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="2489200"/>
+          <a:ext cx="1435100" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 121428"/>
+            <a:gd name="adj2" fmla="val 140761"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>memo.png</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形吹き出し 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4927600" y="12382500"/>
+          <a:ext cx="1612900" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 121428"/>
+            <a:gd name="adj2" fmla="val 140761"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>feedback.png</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
+++ b/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目標管理画面" sheetId="1" r:id="rId1"/>
@@ -6669,132 +6669,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形吹き出し 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363200" y="177800"/>
-          <a:ext cx="838200" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 26293"/>
-            <a:gd name="adj2" fmla="val 83204"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>sdate</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形吹き出し 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11595100" y="139700"/>
-          <a:ext cx="838200" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 6596"/>
-            <a:gd name="adj2" fmla="val 91775"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>edate</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -9492,7 +9366,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>フィードバック種類：</a:t>
+            <a:t>フィードバック種別：</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10642,6 +10516,323 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2501900" y="19278600"/>
+          <a:ext cx="647700" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955800" y="19265900"/>
+          <a:ext cx="508000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="強調線吹き出し 2 (枠付き) 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13779500" y="292100"/>
+          <a:ext cx="3479800" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentBorderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 11932"/>
+            <a:gd name="adj4" fmla="val -311475"/>
+            <a:gd name="adj5" fmla="val 43668"/>
+            <a:gd name="adj6" fmla="val -321697"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Right order.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>進捗メモ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ヒアリング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フィードバック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>面談メモ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="177800"/>
+          <a:ext cx="838200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26293"/>
+            <a:gd name="adj2" fmla="val 83204"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>sdate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形吹き出し 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11595100" y="139700"/>
+          <a:ext cx="838200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6596"/>
+            <a:gd name="adj2" fmla="val 91775"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>edate</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>

--- a/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
+++ b/skrum_docs/04_SpecificDesign/41_OneOnOne_20171017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目標管理画面" sheetId="1" r:id="rId1"/>
@@ -4090,7 +4090,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
-            <a:t>"oneOnOneType": "4",</a:t>
+            <a:t>"oneOnOneType": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>",</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
@@ -4314,7 +4322,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
-            <a:t>"oneOnOneType": "4",</a:t>
+            <a:t>"oneOnOneType": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>",</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
@@ -4702,7 +4718,15 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
-            <a:t>{  "oneOnOneType": "3",</a:t>
+            <a:t>{  "oneOnOneType": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>",</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
@@ -4926,7 +4950,15 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
-            <a:t>"oneOnOneType": "3",</a:t>
+            <a:t>"oneOnOneType": "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="mr-IN" altLang="ja-JP" sz="1800"/>
+            <a:t>",</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
@@ -6143,7 +6175,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>/users/{userId}/defaultdestinations.json&amp;oootype=4</a:t>
+            <a:t>/users/{userId}/defaultdestinations.json&amp;oootype=3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6221,7 +6253,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>/users/{userId}/defaultdestinations.json&amp;oootype=3</a:t>
+            <a:t>/users/{userId}/defaultdestinations.json&amp;oootype=4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6849,7 +6881,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>oootype="4"</a:t>
+            <a:t>oootype="3"</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6912,7 +6944,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>oootype="3"</a:t>
+            <a:t>oootype="4"</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
